--- a/Documentation/Instruction Set.xlsx
+++ b/Documentation/Instruction Set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tokyo\INTEL 8085\Requirement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tokyo\INTEL 8085\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B3ED35-8DF1-4E9D-829C-72EFA096A1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3A420E-30EC-4B55-AD2A-AC2066E9E4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{FBCB6BBB-E3BD-4826-86DD-390BBC3FACC1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
   <si>
     <t>Instruction</t>
   </si>
@@ -691,9 +691,6 @@
   </si>
   <si>
     <t>XTHL</t>
-  </si>
-  <si>
-    <t>Completed</t>
   </si>
   <si>
     <t>SUI DATA</t>
@@ -1056,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33282107-810D-48DF-88FF-CFE37BCC6E78}">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D220" sqref="D220"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1079,9 +1076,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
@@ -3572,7 +3567,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C209" s="2">
         <v>2</v>
